--- a/info/DATA/Data adila.xlsx
+++ b/info/DATA/Data adila.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20220820aldilaTipOdFreqMrDiepMrKhai\info\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75735874-73D7-4578-92FC-0D5881A69EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Diam_LL</t>
   </si>
@@ -147,12 +148,18 @@
   </si>
   <si>
     <t>D837 = 1 : Not save</t>
+  </si>
+  <si>
+    <t>Bit bao do xong</t>
+  </si>
+  <si>
+    <t>Bit báo reset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,13 +213,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,20 +254,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="Group 25"/>
+        <xdr:cNvPr id="26" name="Group 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="76201" y="2447926"/>
-          <a:ext cx="4371974" cy="4162424"/>
+          <a:off x="76201" y="2479302"/>
+          <a:ext cx="4388783" cy="4182035"/>
           <a:chOff x="76201" y="2447926"/>
           <a:chExt cx="4371974" cy="4162424"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Rectangle 1"/>
+          <xdr:cNvPr id="2" name="Rectangle 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -328,7 +347,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="25" name="Group 24"/>
+          <xdr:cNvPr id="25" name="Group 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -341,7 +366,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="Rectangle 5"/>
+            <xdr:cNvPr id="6" name="Rectangle 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -405,7 +436,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -454,7 +491,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Rectangle 13"/>
+            <xdr:cNvPr id="14" name="Rectangle 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -508,7 +551,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+            <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="14" idx="0"/>
             </xdr:cNvCxnSpPr>
@@ -545,7 +594,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Rectangle 19"/>
+            <xdr:cNvPr id="20" name="Rectangle 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -630,7 +685,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+            <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="6" idx="2"/>
               <a:endCxn id="20" idx="0"/>
@@ -668,7 +729,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="TextBox 23"/>
+            <xdr:cNvPr id="24" name="TextBox 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -742,7 +809,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -818,7 +891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 40"/>
+        <xdr:cNvPr id="41" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -897,7 +976,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="TextBox 41"/>
+        <xdr:cNvPr id="42" name="TextBox 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -961,7 +1046,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1011,7 +1102,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -1063,7 +1160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="TextBox 46"/>
+        <xdr:cNvPr id="47" name="TextBox 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1129,19 +1232,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5981701" y="6276974"/>
-          <a:ext cx="1524000" cy="495301"/>
+          <a:ext cx="1781174" cy="1143001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,23 +1276,89 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Freq.02_reading</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Formula_G : D818</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> : D822</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Shaft_Number : D830</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Motor_ Sanding : D824</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Freq.01_ reading : D826</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Freq.02_reading : D828</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Shaft_ Number : D830</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1191,33 +1366,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485773</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="64" name="Group 63"/>
+        <xdr:cNvPr id="64" name="Group 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5333998" y="2362200"/>
-          <a:ext cx="4476751" cy="3914774"/>
-          <a:chOff x="5333998" y="2362200"/>
-          <a:chExt cx="4476751" cy="3914774"/>
+          <a:off x="4350684" y="2393576"/>
+          <a:ext cx="5493122" cy="4944035"/>
+          <a:chOff x="4333875" y="2362200"/>
+          <a:chExt cx="5476874" cy="4924424"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Rectangle 28"/>
+          <xdr:cNvPr id="29" name="Rectangle 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1285,7 +1472,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Rectangle 30"/>
+          <xdr:cNvPr id="31" name="Rectangle 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1349,7 +1542,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="TextBox 31"/>
+          <xdr:cNvPr id="32" name="TextBox 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1398,7 +1597,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Rectangle 32"/>
+          <xdr:cNvPr id="33" name="Rectangle 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1452,7 +1657,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+          <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="33" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -1489,7 +1700,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Rectangle 34"/>
+          <xdr:cNvPr id="35" name="Rectangle 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1542,7 +1759,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+          <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="31" idx="2"/>
             <a:endCxn id="35" idx="0"/>
@@ -1580,7 +1803,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="TextBox 36"/>
+          <xdr:cNvPr id="37" name="TextBox 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1637,15 +1866,21 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="Straight Arrow Connector 50"/>
+          <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="49" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="6743701" y="4733925"/>
-            <a:ext cx="676274" cy="1543049"/>
+            <a:off x="6872288" y="4733925"/>
+            <a:ext cx="547687" cy="1543049"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1671,13 +1906,19 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="TextBox 62"/>
+          <xdr:cNvPr id="63" name="TextBox 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6686550" y="5734050"/>
-            <a:ext cx="1104899" cy="457199"/>
+            <a:off x="4333875" y="6829425"/>
+            <a:ext cx="1590675" cy="457199"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1717,13 +1958,57 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> Write data for PLC3</a:t>
+              <a:t> Write data for PLC3--&gt; Write to DB</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>840441</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>597802</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B51441-D734-5BCE-7FA8-5BF314268FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5703794" y="7608794"/>
+          <a:ext cx="3791479" cy="1752845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1991,11 +2276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,23 +2289,25 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="15" width="11.7109375" customWidth="1"/>
+    <col min="9" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
     <col min="17" max="18" width="12.7109375" customWidth="1"/>
     <col min="19" max="19" width="11.140625" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2114,11 +2401,11 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -2133,14 +2420,14 @@
     <row r="11" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="M24" s="5" t="s">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q24" t="s">
@@ -2159,14 +2446,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="M25" s="5" t="s">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q25" t="s">
@@ -2182,14 +2469,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="M26" s="5" t="s">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S26" t="s">
@@ -2199,14 +2486,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="M27" s="5" t="s">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="S27" t="s">
@@ -2216,34 +2503,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="O30" t="s">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="O31" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="O32" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O34" t="s">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O35" t="s">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O36" t="s">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/info/DATA/Data adila.xlsx
+++ b/info/DATA/Data adila.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20220820aldilaTipOdFreqMrDiepMrKhai\info\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75735874-73D7-4578-92FC-0D5881A69EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ECDCFA-98AF-456A-93EC-6E86D074A3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Diam_LL</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Bit báo reset</t>
+  </si>
+  <si>
+    <t>D836</t>
+  </si>
+  <si>
+    <t>D838</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2286,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33:N35"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,6 +2485,9 @@
       <c r="O26" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
       <c r="S26" t="s">
         <v>13</v>
       </c>
@@ -2495,6 +2504,9 @@
       </c>
       <c r="O27" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="R27" t="s">
+        <v>44</v>
       </c>
       <c r="S27" t="s">
         <v>34</v>
